--- a/Artifacts/World Large Stocks_stocks.xlsx
+++ b/Artifacts/World Large Stocks_stocks.xlsx
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>236510969856</v>
+        <v>233030057984</v>
       </c>
       <c r="H2" t="n">
-        <v>17.071608</v>
+        <v>16.726475</v>
       </c>
       <c r="I2" t="n">
-        <v>26.335272</v>
+        <v>25.835272</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3517588122879459</v>
+        <v>-0.3525721347156708</v>
       </c>
       <c r="K2" t="n">
         <v>43108999168</v>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>146681806848</v>
+        <v>148911620096</v>
       </c>
       <c r="H3" t="n">
-        <v>18.72019</v>
+        <v>19.156507</v>
       </c>
       <c r="I3" t="n">
-        <v>16.73774</v>
+        <v>16.528786</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1184419162921637</v>
+        <v>0.1589784633910802</v>
       </c>
       <c r="K3" t="n">
         <v>68482535424</v>
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>153467076608</v>
+        <v>149857140736</v>
       </c>
       <c r="H4" t="n">
-        <v>22.526775</v>
+        <v>22.0798</v>
       </c>
       <c r="I4" t="n">
-        <v>17.604866</v>
+        <v>17.234064</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2795766238720589</v>
+        <v>0.2811719858995532</v>
       </c>
       <c r="K4" t="n">
         <v>23181000704</v>
@@ -677,16 +677,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>261115527168</v>
+        <v>261716000768</v>
       </c>
       <c r="H5" t="n">
-        <v>95.20708999999999</v>
+        <v>95.99406</v>
       </c>
       <c r="I5" t="n">
-        <v>31.549019</v>
+        <v>31.62157</v>
       </c>
       <c r="J5" t="n">
-        <v>2.017751201709314</v>
+        <v>2.03571454548272</v>
       </c>
       <c r="K5" t="n">
         <v>29600000000</v>
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>81575313408</v>
+        <v>80605470720</v>
       </c>
       <c r="H6" t="n">
-        <v>27.384487</v>
+        <v>27.193876</v>
       </c>
       <c r="I6" t="n">
-        <v>35.611843</v>
+        <v>35.06579</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2310286496545545</v>
+        <v>-0.224489851790021</v>
       </c>
       <c r="K6" t="n">
         <v>9663657984</v>
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>391458816000</v>
+        <v>429714014208</v>
       </c>
       <c r="H7" t="n">
-        <v>18.809689</v>
+        <v>20.35615</v>
       </c>
       <c r="I7" t="n">
-        <v>16.522797</v>
+        <v>17.778116</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1384082852316104</v>
+        <v>0.1450116536532893</v>
       </c>
       <c r="K7" t="n">
         <v>1000763031552</v>
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3045469978624</v>
+        <v>2992256057344</v>
       </c>
       <c r="H8" t="n">
-        <v>26.858059</v>
+        <v>26.172203</v>
       </c>
       <c r="I8" t="n">
-        <v>28.087053</v>
+        <v>27.428236</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.04375660201873088</v>
+        <v>-0.04579342980715195</v>
       </c>
       <c r="K8" t="n">
         <v>371399000064</v>
@@ -877,16 +877,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2353852841984</v>
+        <v>2348520308736</v>
       </c>
       <c r="H9" t="n">
-        <v>33.644817</v>
+        <v>33.203957</v>
       </c>
       <c r="I9" t="n">
-        <v>35.887806</v>
+        <v>35.471542</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.06250003134769488</v>
+        <v>-0.06392687975053346</v>
       </c>
       <c r="K9" t="n">
         <v>670038032384</v>
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>64253579264</v>
+        <v>62027849728</v>
       </c>
       <c r="H10" t="n">
-        <v>23.152172</v>
+        <v>22.282608</v>
       </c>
       <c r="I10" t="n">
-        <v>12.678572</v>
+        <v>12.202381</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8260867233313025</v>
+        <v>0.8260868923860023</v>
       </c>
       <c r="K10" t="n">
         <v>926221074432</v>
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>90971848704</v>
+        <v>90704953344</v>
       </c>
       <c r="H11" t="n">
-        <v>36.31402</v>
+        <v>36.207478</v>
       </c>
       <c r="I11" t="n">
-        <v>28.612665</v>
+        <v>28.528719</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2691589546097855</v>
+        <v>0.2691589131639596</v>
       </c>
       <c r="K11" t="n">
         <v>10259600384</v>
@@ -1027,16 +1027,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>154407567360</v>
+        <v>150321397760</v>
       </c>
       <c r="H12" t="n">
-        <v>23.43219</v>
+        <v>22.173344</v>
       </c>
       <c r="I12" t="n">
-        <v>13.875665</v>
+        <v>13.119496</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6887255493700661</v>
+        <v>0.6901063882332066</v>
       </c>
       <c r="K12" t="n">
         <v>34916999168</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>153103499264</v>
+        <v>150332030976</v>
       </c>
       <c r="H13" t="n">
-        <v>49.96016</v>
+        <v>48.737053</v>
       </c>
       <c r="I13" t="n">
-        <v>58.055553</v>
+        <v>56.63426</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1394421822146799</v>
+        <v>-0.1394422210160421</v>
       </c>
       <c r="K13" t="n">
         <v>18818000896</v>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>121404760064</v>
+        <v>122305036288</v>
       </c>
       <c r="H14" t="n">
-        <v>62.79389</v>
+        <v>62.82487</v>
       </c>
       <c r="I14" t="n">
-        <v>32.729443</v>
+        <v>32.82891</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9185749662773055</v>
+        <v>0.9137056332360713</v>
       </c>
       <c r="K14" t="n">
         <v>10386794496</v>
@@ -1177,16 +1177,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>114101010432</v>
+        <v>115561168896</v>
       </c>
       <c r="H15" t="n">
-        <v>16.885714</v>
+        <v>17.062857</v>
       </c>
       <c r="I15" t="n">
-        <v>15.802138</v>
+        <v>15.967915</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06857148064394836</v>
+        <v>0.06857138204956637</v>
       </c>
       <c r="K15" t="n">
         <v>58519998464</v>
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3775840124928</v>
+        <v>3812050862080</v>
       </c>
       <c r="H16" t="n">
-        <v>38.66717</v>
+        <v>38.919697</v>
       </c>
       <c r="I16" t="n">
-        <v>30.617327</v>
+        <v>30.910948</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2629178895989188</v>
+        <v>0.2590910184961004</v>
       </c>
       <c r="K16" t="n">
         <v>408624988160</v>
@@ -1277,16 +1277,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>220261580800</v>
+        <v>217129385984</v>
       </c>
       <c r="H17" t="n">
-        <v>89.57084</v>
+        <v>88.50761</v>
       </c>
       <c r="I17" t="n">
-        <v>126.19768</v>
+        <v>124.013565</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.2902338616684554</v>
+        <v>-0.286307026170887</v>
       </c>
       <c r="K17" t="n">
         <v>5737590784</v>
@@ -1327,16 +1327,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>181101740032</v>
+        <v>179807158272</v>
       </c>
       <c r="H18" t="n">
-        <v>56.728344</v>
+        <v>55.882812</v>
       </c>
       <c r="I18" t="n">
-        <v>14.808839</v>
+        <v>14.702981</v>
       </c>
       <c r="J18" t="n">
-        <v>2.830708403271856</v>
+        <v>2.800781079700776</v>
       </c>
       <c r="K18" t="n">
         <v>7950945792</v>
@@ -1377,16 +1377,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>149345632256</v>
+        <v>152851791872</v>
       </c>
       <c r="H19" t="n">
-        <v>213.62122</v>
+        <v>216.38461</v>
       </c>
       <c r="I19" t="n">
-        <v>68.44175</v>
+        <v>68.276695</v>
       </c>
       <c r="J19" t="n">
-        <v>2.121212125639686</v>
+        <v>2.169230877387958</v>
       </c>
       <c r="K19" t="n">
         <v>4120999936</v>
@@ -1427,16 +1427,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>78026637312</v>
+        <v>78075346944</v>
       </c>
       <c r="H20" t="n">
-        <v>46.11515</v>
+        <v>45.851738</v>
       </c>
       <c r="I20" t="n">
-        <v>26.98227</v>
+        <v>26.868793</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7090908214912979</v>
+        <v>0.7065053126874734</v>
       </c>
       <c r="K20" t="n">
         <v>11551500288</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>378852343808</v>
+        <v>380375662592</v>
       </c>
       <c r="H21" t="n">
-        <v>34.09448</v>
+        <v>33.446636</v>
       </c>
       <c r="I21" t="n">
-        <v>36.086517</v>
+        <v>35.563667</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0552016976312788</v>
+        <v>-0.05952791651097189</v>
       </c>
       <c r="K21" t="n">
         <v>32163299328</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>235545083904</v>
+        <v>235853971456</v>
       </c>
       <c r="H22" t="n">
-        <v>28.56015</v>
+        <v>27.747168</v>
       </c>
       <c r="I22" t="n">
-        <v>13.837888</v>
+        <v>13.393443</v>
       </c>
       <c r="J22" t="n">
-        <v>1.063909608171421</v>
+        <v>1.071697919646203</v>
       </c>
       <c r="K22" t="n">
         <v>56500998144</v>
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>205859602432</v>
+        <v>202498899968</v>
       </c>
       <c r="H23" t="n">
-        <v>16.45143</v>
+        <v>16.171429</v>
       </c>
       <c r="I23" t="n">
-        <v>12.852679</v>
+        <v>12.633928</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2800000684682158</v>
+        <v>0.2800000918162586</v>
       </c>
       <c r="K23" t="n">
         <v>123984003072</v>
@@ -1627,16 +1627,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>117144551424</v>
+        <v>118070075392</v>
       </c>
       <c r="H24" t="n">
-        <v>28.97946</v>
+        <v>28.97593</v>
       </c>
       <c r="I24" t="n">
-        <v>26.606716</v>
+        <v>26.576818</v>
       </c>
       <c r="J24" t="n">
-        <v>0.08917838638936137</v>
+        <v>0.09027085183786876</v>
       </c>
       <c r="K24" t="n">
         <v>20560900096</v>
@@ -1677,23 +1677,21 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>68922302464</v>
+        <v>69607874560</v>
       </c>
       <c r="H25" t="n">
-        <v>27.926523</v>
+        <v>28.571913</v>
       </c>
       <c r="I25" t="n">
-        <v>23.634693</v>
+        <v>23.72688</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1815902580160444</v>
+        <v>0.20420017296838</v>
       </c>
       <c r="K25" t="n">
-        <v>18901370880</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1520323840</v>
-      </c>
+        <v>18938716160</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1727,16 +1725,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>61043482624</v>
+        <v>55906938880</v>
       </c>
       <c r="H26" t="n">
-        <v>192.94789</v>
+        <v>175.40642</v>
       </c>
       <c r="I26" t="n">
-        <v>125.41614</v>
+        <v>114.86291</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5384613973927119</v>
+        <v>0.527093645807859</v>
       </c>
       <c r="K26" t="n">
         <v>2391589888</v>
@@ -1777,16 +1775,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>109260619776</v>
+        <v>111427428352</v>
       </c>
       <c r="H27" t="n">
-        <v>9.169083000000001</v>
+        <v>9.033654</v>
       </c>
       <c r="I27" t="n">
-        <v>11.862499</v>
+        <v>11.743751</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.2270530012268072</v>
+        <v>-0.2307692831702579</v>
       </c>
       <c r="K27" t="n">
         <v>31377000448</v>
@@ -1825,16 +1823,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>152008523776</v>
+        <v>153085591552</v>
       </c>
       <c r="H28" t="n">
-        <v>10.677084</v>
+        <v>10.536082</v>
       </c>
       <c r="I28" t="n">
-        <v>12.974683</v>
+        <v>12.936708</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.1770832474288582</v>
+        <v>-0.1855669927774515</v>
       </c>
       <c r="K28" t="n">
         <v>50157998080</v>
@@ -1873,16 +1871,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>93592641536</v>
+        <v>93017415680</v>
       </c>
       <c r="H29" t="n">
-        <v>15.647903</v>
+        <v>15.70267</v>
       </c>
       <c r="I29" t="n">
-        <v>17.057442</v>
+        <v>16.891645</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.08263484055815651</v>
+        <v>-0.07038834879610611</v>
       </c>
       <c r="K29" t="n">
         <v>31505000448</v>
@@ -1921,16 +1919,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>76631474176</v>
+        <v>76927672320</v>
       </c>
       <c r="H30" t="n">
-        <v>16.640123</v>
+        <v>16.6789</v>
       </c>
       <c r="I30" t="n">
-        <v>16.640123</v>
+        <v>16.704441</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>-0.001528994594910404</v>
       </c>
       <c r="K30" t="n">
         <v>19271000064</v>
@@ -1969,16 +1967,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>53461753856</v>
+        <v>53327040512</v>
       </c>
       <c r="H31" t="n">
-        <v>34.09872</v>
+        <v>33.014626</v>
       </c>
       <c r="I31" t="n">
-        <v>11.857597</v>
+        <v>11.480611</v>
       </c>
       <c r="J31" t="n">
-        <v>1.875685520430489</v>
+        <v>1.87568544914552</v>
       </c>
       <c r="K31" t="n">
         <v>21386000384</v>
@@ -2019,16 +2017,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>175255273472</v>
+        <v>177661706240</v>
       </c>
       <c r="H32" t="n">
-        <v>27.363394</v>
+        <v>27.69894</v>
       </c>
       <c r="I32" t="n">
-        <v>23.049898</v>
+        <v>23.366396</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1871373140132768</v>
+        <v>0.1854177255234397</v>
       </c>
       <c r="K32" t="n">
         <v>21572999168</v>
@@ -2069,16 +2067,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>227998973952</v>
+        <v>215668047872</v>
       </c>
       <c r="H33" t="n">
-        <v>50.247284</v>
+        <v>47.33154</v>
       </c>
       <c r="I33" t="n">
-        <v>31.716982</v>
+        <v>30.12007</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5842391309488399</v>
+        <v>0.5714286188577915</v>
       </c>
       <c r="K33" t="n">
         <v>13505741824</v>
@@ -2117,16 +2115,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>178546704384</v>
+        <v>180708769792</v>
       </c>
       <c r="H34" t="n">
-        <v>38.385033</v>
+        <v>38.90949</v>
       </c>
       <c r="I34" t="n">
-        <v>26.25218</v>
+        <v>26.570072</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4621655420616497</v>
+        <v>0.4644104088238827</v>
       </c>
       <c r="K34" t="n">
         <v>25024999424</v>
@@ -2167,16 +2165,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>144752328704</v>
+        <v>145419108352</v>
       </c>
       <c r="H35" t="n">
-        <v>58.14881</v>
+        <v>58.416668</v>
       </c>
       <c r="I35" t="n">
-        <v>35.01434</v>
+        <v>35.17563</v>
       </c>
       <c r="J35" t="n">
-        <v>0.660714153115552</v>
+        <v>0.6607141933207736</v>
       </c>
       <c r="K35" t="n">
         <v>18493999104</v>
@@ -2217,16 +2215,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1600598441984</v>
+        <v>1602345631744</v>
       </c>
       <c r="H36" t="n">
-        <v>86.90769</v>
+        <v>86.17949</v>
       </c>
       <c r="I36" t="n">
-        <v>54.933548</v>
+        <v>54.47326</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5820512813044589</v>
+        <v>0.5820512669886104</v>
       </c>
       <c r="K36" t="n">
         <v>59925999616</v>
@@ -2267,16 +2265,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>75927085056</v>
+        <v>74906648576</v>
       </c>
       <c r="H37" t="n">
-        <v>13.523179</v>
+        <v>13.434782</v>
       </c>
       <c r="I37" t="n">
-        <v>15.210428</v>
+        <v>14.960894</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.1109271218403585</v>
+        <v>-0.102006738367373</v>
       </c>
       <c r="K37" t="n">
         <v>26018000896</v>
@@ -2315,16 +2313,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>67016183808</v>
+        <v>67773272064</v>
       </c>
       <c r="H38" t="n">
-        <v>11.237762</v>
+        <v>11.392983</v>
       </c>
       <c r="I38" t="n">
-        <v>12.409266</v>
+        <v>12.53668</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.09440558369850405</v>
+        <v>-0.09122806037962217</v>
       </c>
       <c r="K38" t="n">
         <v>37997998080</v>
@@ -2365,16 +2363,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>68679237632</v>
+        <v>68364718080</v>
       </c>
       <c r="H39" t="n">
-        <v>22.87963</v>
+        <v>22.90432</v>
       </c>
       <c r="I39" t="n">
-        <v>20.591667</v>
+        <v>20.61389</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1111111111111109</v>
+        <v>0.1111110033089338</v>
       </c>
       <c r="K39" t="n">
         <v>14917000192</v>
@@ -2415,16 +2413,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>51325186048</v>
+        <v>49997590528</v>
       </c>
       <c r="H40" t="n">
-        <v>34.53179</v>
+        <v>33.764366</v>
       </c>
       <c r="I40" t="n">
-        <v>19.651316</v>
+        <v>19.325659</v>
       </c>
       <c r="J40" t="n">
-        <v>0.7572253176326715</v>
+        <v>0.7471262428877588</v>
       </c>
       <c r="K40" t="n">
         <v>22463000576</v>
@@ -2465,16 +2463,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>44217659392</v>
+        <v>43431776256</v>
       </c>
       <c r="H41" t="n">
-        <v>93.821335</v>
+        <v>93.5466</v>
       </c>
       <c r="I41" t="n">
-        <v>160.89363</v>
+        <v>158.03406</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.4168735269382635</v>
+        <v>-0.4080605155622782</v>
       </c>
       <c r="K41" t="n">
         <v>16273999872</v>
@@ -2515,16 +2513,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>58628673536</v>
+        <v>59784187904</v>
       </c>
       <c r="H42" t="n">
-        <v>31.079138</v>
+        <v>30.679672</v>
       </c>
       <c r="I42" t="n">
-        <v>18.484106</v>
+        <v>18.265282</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6813979534633701</v>
+        <v>0.6796714115883895</v>
       </c>
       <c r="K42" t="n">
         <v>316654387200</v>
@@ -2565,16 +2563,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>53206315008</v>
+        <v>53032005632</v>
       </c>
       <c r="H43" t="n">
-        <v>35.115044</v>
+        <v>34.805313</v>
       </c>
       <c r="I43" t="n">
-        <v>30.290077</v>
+        <v>30.022903</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1592920017997972</v>
+        <v>0.1592920578000068</v>
       </c>
       <c r="K43" t="n">
         <v>11577533440</v>
@@ -2615,22 +2613,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>80827842560</v>
+        <v>81416159232</v>
       </c>
       <c r="H44" t="n">
-        <v>45.588634</v>
+        <v>44.80044</v>
       </c>
       <c r="I44" t="n">
-        <v>42.86111</v>
+        <v>43.17308</v>
       </c>
       <c r="J44" t="n">
-        <v>0.06363633606315844</v>
+        <v>0.03769385922894553</v>
       </c>
       <c r="K44" t="n">
-        <v>10340180992</v>
+        <v>10556716032</v>
       </c>
       <c r="L44" t="n">
-        <v>1556821248</v>
+        <v>1492897024</v>
       </c>
     </row>
     <row r="45">
@@ -2665,16 +2663,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>266998939648</v>
+        <v>268224413696</v>
       </c>
       <c r="H45" t="n">
-        <v>26.486275</v>
+        <v>26.607843</v>
       </c>
       <c r="I45" t="n">
-        <v>17.31795</v>
+        <v>17.397434</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5294116797888895</v>
+        <v>0.5294119236204602</v>
       </c>
       <c r="K45" t="n">
         <v>56654000128</v>
@@ -2715,16 +2713,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>94405189632</v>
+        <v>96844128256</v>
       </c>
       <c r="H46" t="n">
-        <v>25.334621</v>
+        <v>26.03973</v>
       </c>
       <c r="I46" t="n">
-        <v>25.26133</v>
+        <v>25.914177</v>
       </c>
       <c r="J46" t="n">
-        <v>0.002901312005345602</v>
+        <v>0.004844954173153893</v>
       </c>
       <c r="K46" t="n">
         <v>6432699904</v>
@@ -2765,16 +2763,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>82238201856</v>
+        <v>82674991104</v>
       </c>
       <c r="H47" t="n">
-        <v>30.805582</v>
+        <v>29.574736</v>
       </c>
       <c r="I47" t="n">
-        <v>89.65546399999999</v>
+        <v>85.90756</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.6564003951839454</v>
+        <v>-0.6557376789656231</v>
       </c>
       <c r="K47" t="n">
         <v>6706041856</v>
@@ -2815,16 +2813,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>64778899456</v>
+        <v>65570951168</v>
       </c>
       <c r="H48" t="n">
-        <v>22.514046</v>
+        <v>22.38764</v>
       </c>
       <c r="I48" t="n">
-        <v>20.76425</v>
+        <v>20.647669</v>
       </c>
       <c r="J48" t="n">
-        <v>0.08426964614662213</v>
+        <v>0.08426960932006411</v>
       </c>
       <c r="K48" t="n">
         <v>19997999104</v>
@@ -2865,16 +2863,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>69386117120</v>
+        <v>68452401152</v>
       </c>
       <c r="H49" t="n">
-        <v>86.17021</v>
+        <v>84.18085000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>35.064938</v>
+        <v>34.25541</v>
       </c>
       <c r="J49" t="n">
-        <v>1.457446523932254</v>
+        <v>1.457446867516693</v>
       </c>
       <c r="K49" t="n">
         <v>14206000128</v>
@@ -2915,16 +2913,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>47367229440</v>
+        <v>45554032640</v>
       </c>
       <c r="H50" t="n">
-        <v>32.166668</v>
+        <v>30.912441</v>
       </c>
       <c r="I50" t="n">
-        <v>21.644861</v>
+        <v>20.897196</v>
       </c>
       <c r="J50" t="n">
-        <v>0.486111091219297</v>
+        <v>0.4792626245167055</v>
       </c>
       <c r="K50" t="n">
         <v>17176999936</v>
@@ -2965,16 +2963,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>418464956416</v>
+        <v>419205578752</v>
       </c>
       <c r="H51" t="n">
-        <v>53.492065</v>
+        <v>53.475624</v>
       </c>
       <c r="I51" t="n">
-        <v>47.94715</v>
+        <v>47.93242</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1156463939983918</v>
+        <v>0.1156462369310793</v>
       </c>
       <c r="K51" t="n">
         <v>268775997440</v>
@@ -3015,16 +3013,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>58443325440</v>
+        <v>57591812096</v>
       </c>
       <c r="H52" t="n">
-        <v>19.885607</v>
+        <v>19.420263</v>
       </c>
       <c r="I52" t="n">
-        <v>18.834814</v>
+        <v>18.385435</v>
       </c>
       <c r="J52" t="n">
-        <v>0.05578993240920771</v>
+        <v>0.05628520619718791</v>
       </c>
       <c r="K52" t="n">
         <v>33720000512</v>
@@ -3065,16 +3063,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>69896421376</v>
+        <v>68210327552</v>
       </c>
       <c r="H53" t="n">
-        <v>12.681819</v>
+        <v>12.1868515</v>
       </c>
       <c r="I53" t="n">
-        <v>12.726316</v>
+        <v>12.357896</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.003496455690711997</v>
+        <v>-0.01384090786975389</v>
       </c>
       <c r="K53" t="n">
         <v>30072000512</v>
@@ -3113,16 +3111,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>60475781120</v>
+        <v>59739459584</v>
       </c>
       <c r="H54" t="n">
-        <v>45.700787</v>
+        <v>45.094738</v>
       </c>
       <c r="I54" t="n">
-        <v>143.90082</v>
+        <v>141.61983</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.6824146867265941</v>
+        <v>-0.6815789286006063</v>
       </c>
       <c r="K54" t="n">
         <v>5685473792</v>
@@ -3163,16 +3161,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>143464824832</v>
+        <v>144901341184</v>
       </c>
       <c r="H55" t="n">
-        <v>37.037186</v>
+        <v>36.62048</v>
       </c>
       <c r="I55" t="n">
-        <v>30.582571</v>
+        <v>30.268879</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2110553426002018</v>
+        <v>0.2098393204452667</v>
       </c>
       <c r="K55" t="n">
         <v>25988999168</v>
@@ -3213,16 +3211,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>75390328832</v>
+        <v>75798757376</v>
       </c>
       <c r="H56" t="n">
-        <v>35.536095</v>
+        <v>35.72861</v>
       </c>
       <c r="I56" t="n">
-        <v>35.441334</v>
+        <v>35.633335</v>
       </c>
       <c r="J56" t="n">
-        <v>0.002673742472560692</v>
+        <v>0.002673760398795189</v>
       </c>
       <c r="K56" t="n">
         <v>15723899904</v>
@@ -3263,16 +3261,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>676780048384</v>
+        <v>640599064576</v>
       </c>
       <c r="H57" t="n">
-        <v>49.273087</v>
+        <v>46.735775</v>
       </c>
       <c r="I57" t="n">
-        <v>32.964695</v>
+        <v>31.535305</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4947229755955576</v>
+        <v>0.4820143645352406</v>
       </c>
       <c r="K57" t="n">
         <v>53258100736</v>
@@ -3313,16 +3311,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>73985695744</v>
+        <v>74244579328</v>
       </c>
       <c r="H58" t="n">
-        <v>33.794346</v>
+        <v>33.4473</v>
       </c>
       <c r="I58" t="n">
-        <v>20.800632</v>
+        <v>20.587025</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6246788078362233</v>
+        <v>0.624678650752112</v>
       </c>
       <c r="K58" t="n">
         <v>17780000768</v>
@@ -3363,16 +3361,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>108153528320</v>
+        <v>108432662528</v>
       </c>
       <c r="H59" t="n">
-        <v>23.846153</v>
+        <v>24.180489</v>
       </c>
       <c r="I59" t="n">
-        <v>23.177568</v>
+        <v>23.16355</v>
       </c>
       <c r="J59" t="n">
-        <v>0.02884621026675438</v>
+        <v>0.04390255379680585</v>
       </c>
       <c r="K59" t="n">
         <v>64476999680</v>
@@ -3413,16 +3411,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>58733182976</v>
+        <v>59762982912</v>
       </c>
       <c r="H60" t="n">
-        <v>13.263567</v>
+        <v>13.496124</v>
       </c>
       <c r="I60" t="n">
-        <v>10.829114</v>
+        <v>11.018987</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2248062953257302</v>
+        <v>0.2248062367257535</v>
       </c>
       <c r="K60" t="n">
         <v>80574996480</v>
@@ -3463,16 +3461,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>68118683648</v>
+        <v>68638347264</v>
       </c>
       <c r="H61" t="n">
-        <v>11.782771</v>
+        <v>11.808989</v>
       </c>
       <c r="I61" t="n">
-        <v>11.038596</v>
+        <v>11.063158</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0674157293191997</v>
+        <v>0.0674157415088894</v>
       </c>
       <c r="K61" t="n">
         <v>54755999744</v>
@@ -3513,16 +3511,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>55075082240</v>
+        <v>54914408448</v>
       </c>
       <c r="H62" t="n">
-        <v>46.144234</v>
+        <v>46.45631</v>
       </c>
       <c r="I62" t="n">
-        <v>21.913242</v>
+        <v>21.849314</v>
       </c>
       <c r="J62" t="n">
-        <v>1.105769379081379</v>
+        <v>1.126213665106374</v>
       </c>
       <c r="K62" t="n">
         <v>7774400000</v>
@@ -3563,16 +3561,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>86578454528</v>
+        <v>85649768448</v>
       </c>
       <c r="H63" t="n">
-        <v>45.68075</v>
+        <v>45.063812</v>
       </c>
       <c r="I63" t="n">
-        <v>51.04932</v>
+        <v>49.65058</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.1051643782914248</v>
+        <v>-0.09238095506638588</v>
       </c>
       <c r="K63" t="n">
         <v>6958282752</v>
@@ -3613,16 +3611,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>70569263104</v>
+        <v>70987841536</v>
       </c>
       <c r="H64" t="n">
-        <v>21.709032</v>
+        <v>21.51505</v>
       </c>
       <c r="I64" t="n">
-        <v>12.739943</v>
+        <v>12.626105</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7040132754126136</v>
+        <v>0.7040132329011992</v>
       </c>
       <c r="K64" t="n">
         <v>21112000512</v>
@@ -3663,16 +3661,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>65339502592</v>
+        <v>64059838464</v>
       </c>
       <c r="H65" t="n">
-        <v>33.97211</v>
+        <v>33.151394</v>
       </c>
       <c r="I65" t="n">
-        <v>35.38174</v>
+        <v>34.52697</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.03984060704759007</v>
+        <v>-0.03984062314185099</v>
       </c>
       <c r="K65" t="n">
         <v>6337900032</v>
@@ -3713,16 +3711,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>65126711296</v>
+        <v>50740256768</v>
       </c>
       <c r="H66" t="n">
-        <v>34.363636</v>
+        <v>26.772726</v>
       </c>
       <c r="I66" t="n">
-        <v>21</v>
+        <v>16.36111</v>
       </c>
       <c r="J66" t="n">
-        <v>0.636363619047619</v>
+        <v>0.6363636697021167</v>
       </c>
       <c r="K66" t="n">
         <v>25820000256</v>
@@ -3763,16 +3761,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>324102094848</v>
+        <v>318449942528</v>
       </c>
       <c r="H67" t="n">
-        <v>43.599144</v>
+        <v>42.393723</v>
       </c>
       <c r="I67" t="n">
-        <v>58.32634</v>
+        <v>56.71374</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.2524964878646594</v>
+        <v>-0.2524964320815379</v>
       </c>
       <c r="K67" t="n">
         <v>41611001856</v>
@@ -3813,16 +3811,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>86938648576</v>
+        <v>87269507072</v>
       </c>
       <c r="H68" t="n">
-        <v>21.735039</v>
+        <v>21.788448</v>
       </c>
       <c r="I68" t="n">
-        <v>20.099503</v>
+        <v>20.175995</v>
       </c>
       <c r="J68" t="n">
-        <v>0.08137196228185362</v>
+        <v>0.07991937944076599</v>
       </c>
       <c r="K68" t="n">
         <v>50273001472</v>
@@ -3863,16 +3861,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>141948305408</v>
+        <v>137717153792</v>
       </c>
       <c r="H69" t="n">
-        <v>22.300194</v>
+        <v>22.021826</v>
       </c>
       <c r="I69" t="n">
-        <v>15.397039</v>
+        <v>14.938088</v>
       </c>
       <c r="J69" t="n">
-        <v>0.4483430223174729</v>
+        <v>0.474206471403837</v>
       </c>
       <c r="K69" t="n">
         <v>28863000576</v>
@@ -3913,16 +3911,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>95808643072</v>
+        <v>97486372864</v>
       </c>
       <c r="H70" t="n">
-        <v>17.189337</v>
+        <v>17.425032</v>
       </c>
       <c r="I70" t="n">
-        <v>16.67821</v>
+        <v>16.899797</v>
       </c>
       <c r="J70" t="n">
-        <v>0.03064639430730276</v>
+        <v>0.03107936740305228</v>
       </c>
       <c r="K70" t="n">
         <v>72698003456</v>
@@ -3963,16 +3961,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>62020595712</v>
+        <v>61895938048</v>
       </c>
       <c r="H71" t="n">
-        <v>40.569233</v>
+        <v>40.50853</v>
       </c>
       <c r="I71" t="n">
-        <v>33.003757</v>
+        <v>32.70088</v>
       </c>
       <c r="J71" t="n">
-        <v>0.2292307509111764</v>
+        <v>0.238759629710271</v>
       </c>
       <c r="K71" t="n">
         <v>4826999808</v>
@@ -4013,16 +4011,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>132890198016</v>
+        <v>132376936448</v>
       </c>
       <c r="H72" t="n">
-        <v>23.785227</v>
+        <v>23.617975</v>
       </c>
       <c r="I72" t="n">
-        <v>19.010899</v>
+        <v>18.855768</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2511363613051651</v>
+        <v>0.2525596942007347</v>
       </c>
       <c r="K72" t="n">
         <v>39990001664</v>
@@ -4063,16 +4061,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>78037196800</v>
+        <v>76682690560</v>
       </c>
       <c r="H73" t="n">
-        <v>56.602337</v>
+        <v>55.511696</v>
       </c>
       <c r="I73" t="n">
-        <v>61.066246</v>
+        <v>59.88959</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.0730994500628056</v>
+        <v>-0.07309941510703277</v>
       </c>
       <c r="K73" t="n">
         <v>7720999936</v>
@@ -4113,16 +4111,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>51873443840</v>
+        <v>50176540672</v>
       </c>
       <c r="H74" t="n">
-        <v>53.85216</v>
+        <v>51.55713</v>
       </c>
       <c r="I74" t="n">
-        <v>54.212376</v>
+        <v>51.686455</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.006644534450952699</v>
+        <v>-0.002502106209450794</v>
       </c>
       <c r="K74" t="n">
         <v>4037714944</v>
@@ -4163,16 +4161,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>76145631232</v>
+        <v>75661746176</v>
       </c>
       <c r="H75" t="n">
-        <v>22.914036</v>
+        <v>22.621931</v>
       </c>
       <c r="I75" t="n">
-        <v>24.413084</v>
+        <v>24.101871</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.06140346709166289</v>
+        <v>-0.06140353170092061</v>
       </c>
       <c r="K75" t="n">
         <v>15790000128</v>
@@ -4213,16 +4211,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>69972557824</v>
+        <v>69763178496</v>
       </c>
       <c r="H76" t="n">
-        <v>21.922077</v>
+        <v>21.48052</v>
       </c>
       <c r="I76" t="n">
-        <v>19.858822</v>
+        <v>19.458824</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1038961424801532</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="K76" t="n">
         <v>19504001024</v>
@@ -4263,16 +4261,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>111321260032</v>
+        <v>109570449408</v>
       </c>
       <c r="H77" t="n">
-        <v>34.468422</v>
+        <v>34.194736</v>
       </c>
       <c r="I77" t="n">
-        <v>9.477569000000001</v>
+        <v>9.402316000000001</v>
       </c>
       <c r="J77" t="n">
-        <v>2.636842105818485</v>
+        <v>2.636841816420549</v>
       </c>
       <c r="K77" t="n">
         <v>5637000192</v>
@@ -4311,16 +4309,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>96218595328</v>
+        <v>96195698688</v>
       </c>
       <c r="H78" t="n">
-        <v>32.262955</v>
+        <v>32.16923</v>
       </c>
       <c r="I78" t="n">
-        <v>24.939169</v>
+        <v>24.818993</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2936659998574931</v>
+        <v>0.296153715825618</v>
       </c>
       <c r="K78" t="n">
         <v>9688000512</v>
@@ -4361,16 +4359,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>194934865920</v>
+        <v>193710915584</v>
       </c>
       <c r="H79" t="n">
-        <v>51.072315</v>
+        <v>50.74579</v>
       </c>
       <c r="I79" t="n">
-        <v>31.452091</v>
+        <v>31.159695</v>
       </c>
       <c r="J79" t="n">
-        <v>0.6238130240688928</v>
+        <v>0.6285714606641688</v>
       </c>
       <c r="K79" t="n">
         <v>18830999552</v>
@@ -4411,16 +4409,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>160507854848</v>
+        <v>159159975936</v>
       </c>
       <c r="H80" t="n">
-        <v>62.534916</v>
+        <v>60.93463</v>
       </c>
       <c r="I80" t="n">
-        <v>56.96565</v>
+        <v>55.740456</v>
       </c>
       <c r="J80" t="n">
-        <v>0.09776533753235506</v>
+        <v>0.0931849929609474</v>
       </c>
       <c r="K80" t="n">
         <v>9144999936</v>
@@ -4461,16 +4459,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>425264480256</v>
+        <v>428034064384</v>
       </c>
       <c r="H81" t="n">
-        <v>18.90578</v>
+        <v>19.008554</v>
       </c>
       <c r="I81" t="n">
-        <v>16.65849</v>
+        <v>16.76698</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1349035836981622</v>
+        <v>0.13368978790456</v>
       </c>
       <c r="K81" t="n">
         <v>90626998272</v>
@@ -4511,16 +4509,16 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>61040472064</v>
+        <v>62062628864</v>
       </c>
       <c r="H82" t="n">
-        <v>22.516392</v>
+        <v>22.893442</v>
       </c>
       <c r="I82" t="n">
-        <v>21.801586</v>
+        <v>22.166668</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03278688073427305</v>
+        <v>0.0327867950203431</v>
       </c>
       <c r="K82" t="n">
         <v>15969000448</v>
@@ -4561,16 +4559,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>141357006848</v>
+        <v>140727304192</v>
       </c>
       <c r="H83" t="n">
-        <v>35.213673</v>
+        <v>34.838814</v>
       </c>
       <c r="I83" t="n">
-        <v>32.638634</v>
+        <v>32.26996</v>
       </c>
       <c r="J83" t="n">
-        <v>0.07889542803782779</v>
+        <v>0.07960511881638532</v>
       </c>
       <c r="K83" t="n">
         <v>12156162048</v>
@@ -4611,16 +4609,16 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>53544660992</v>
+        <v>54115299328</v>
       </c>
       <c r="H84" t="n">
-        <v>31.94085</v>
+        <v>32.35347</v>
       </c>
       <c r="I84" t="n">
-        <v>19.888117</v>
+        <v>20.100069</v>
       </c>
       <c r="J84" t="n">
-        <v>0.6060268551316346</v>
+        <v>0.6096198475736576</v>
       </c>
       <c r="K84" t="n">
         <v>21372999680</v>
@@ -4661,16 +4659,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>166973374464</v>
+        <v>162404483072</v>
       </c>
       <c r="H85" t="n">
-        <v>31.79036</v>
+        <v>30.874699</v>
       </c>
       <c r="I85" t="n">
-        <v>30.896954</v>
+        <v>30.007027</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02891566592616224</v>
+        <v>0.02891562699630312</v>
       </c>
       <c r="K85" t="n">
         <v>18435590144</v>
@@ -4711,16 +4709,16 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>225048444928</v>
+        <v>222159962112</v>
       </c>
       <c r="H86" t="n">
-        <v>34.014175</v>
+        <v>33.673065</v>
       </c>
       <c r="I86" t="n">
-        <v>28.315042</v>
+        <v>27.951622</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2012758095149569</v>
+        <v>0.204690912033656</v>
       </c>
       <c r="K86" t="n">
         <v>33244999680</v>
@@ -4761,16 +4759,16 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>66190843904</v>
+        <v>65680130048</v>
       </c>
       <c r="H87" t="n">
-        <v>12.416666</v>
+        <v>12.542857</v>
       </c>
       <c r="I87" t="n">
-        <v>12.416666</v>
+        <v>12.194444</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.02857145434428987</v>
       </c>
       <c r="K87" t="n">
         <v>17673000960</v>
@@ -4809,16 +4807,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>145707909120</v>
+        <v>144317087744</v>
       </c>
       <c r="H88" t="n">
-        <v>21.313372</v>
+        <v>20.962265</v>
       </c>
       <c r="I88" t="n">
-        <v>20.570862</v>
+        <v>20.231987</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03609523023391037</v>
+        <v>0.03609521892239242</v>
       </c>
       <c r="K88" t="n">
         <v>83612000256</v>
@@ -4859,16 +4857,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>53916078080</v>
+        <v>52148297728</v>
       </c>
       <c r="H89" t="n">
-        <v>14.131818</v>
+        <v>13.691964</v>
       </c>
       <c r="I89" t="n">
-        <v>10.538983</v>
+        <v>10.39661</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3409090801266119</v>
+        <v>0.3169642797027108</v>
       </c>
       <c r="K89" t="n">
         <v>31253000192</v>
@@ -4909,16 +4907,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>97076084736</v>
+        <v>98157658112</v>
       </c>
       <c r="H90" t="n">
-        <v>23.704683</v>
+        <v>23.765907</v>
       </c>
       <c r="I90" t="n">
-        <v>20.939554</v>
+        <v>20.993637</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1320529080991886</v>
+        <v>0.1320528691622131</v>
       </c>
       <c r="K90" t="n">
         <v>25799000064</v>
@@ -4959,16 +4957,16 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>515259596800</v>
+        <v>514210955264</v>
       </c>
       <c r="H91" t="n">
-        <v>38.381817</v>
+        <v>38.3052</v>
       </c>
       <c r="I91" t="n">
-        <v>34.796703</v>
+        <v>34.6337</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1030302784720725</v>
+        <v>0.1060094647698628</v>
       </c>
       <c r="K91" t="n">
         <v>30240999424</v>
@@ -5009,16 +5007,16 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>216357732352</v>
+        <v>217171230720</v>
       </c>
       <c r="H92" t="n">
-        <v>25.980291</v>
+        <v>25.904026</v>
       </c>
       <c r="I92" t="n">
-        <v>24.043617</v>
+        <v>23.973038</v>
       </c>
       <c r="J92" t="n">
-        <v>0.08054836341803306</v>
+        <v>0.08054832266148337</v>
       </c>
       <c r="K92" t="n">
         <v>26059999232</v>
@@ -5059,16 +5057,16 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>92207390720</v>
+        <v>94604279808</v>
       </c>
       <c r="H93" t="n">
-        <v>29.711823</v>
+        <v>29.496197</v>
       </c>
       <c r="I93" t="n">
-        <v>20.13882</v>
+        <v>20.008694</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4753507405101194</v>
+        <v>0.4741690287232141</v>
       </c>
       <c r="K93" t="n">
         <v>377595002880</v>
@@ -5109,16 +5107,16 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>121803841536</v>
+        <v>122804346880</v>
       </c>
       <c r="H94" t="n">
-        <v>26.232044</v>
+        <v>26.049725</v>
       </c>
       <c r="I94" t="n">
-        <v>16.23248</v>
+        <v>16.11966</v>
       </c>
       <c r="J94" t="n">
-        <v>0.6160219510512257</v>
+        <v>0.6160219880568201</v>
       </c>
       <c r="K94" t="n">
         <v>34200000512</v>
@@ -5159,16 +5157,16 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>126457004032</v>
+        <v>127299584000</v>
       </c>
       <c r="H95" t="n">
-        <v>61.4372</v>
+        <v>61.735203</v>
       </c>
       <c r="I95" t="n">
-        <v>51.55746</v>
+        <v>51.514053</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1916258093397154</v>
+        <v>0.1984147898438511</v>
       </c>
       <c r="K95" t="n">
         <v>24096000000</v>
@@ -5209,16 +5207,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1897671819264</v>
+        <v>1910885449728</v>
       </c>
       <c r="H96" t="n">
-        <v>27.419239</v>
+        <v>27.173801</v>
       </c>
       <c r="I96" t="n">
-        <v>29.85771</v>
+        <v>29.601185</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.08166972617792856</v>
+        <v>-0.08200293332851372</v>
       </c>
       <c r="K96" t="n">
         <v>178803998720</v>
@@ -5259,16 +5257,16 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3823992569856</v>
+        <v>3768838258688</v>
       </c>
       <c r="H97" t="n">
-        <v>37.748703</v>
+        <v>37.172287</v>
       </c>
       <c r="I97" t="n">
-        <v>34.06221</v>
+        <v>33.91505</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1082282388606024</v>
+        <v>0.09604104962251259</v>
       </c>
       <c r="K97" t="n">
         <v>281723994112</v>
@@ -5309,16 +5307,16 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>62960091136</v>
+        <v>63399477248</v>
       </c>
       <c r="H98" t="n">
-        <v>40.04969</v>
+        <v>40.11801</v>
       </c>
       <c r="I98" t="n">
-        <v>34.481285</v>
+        <v>34.540104</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1614906463027697</v>
+        <v>0.1614907123614915</v>
       </c>
       <c r="K98" t="n">
         <v>7659164160</v>
@@ -5359,16 +5357,16 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>85514608640</v>
+        <v>85159485440</v>
       </c>
       <c r="H99" t="n">
-        <v>40.508068</v>
+        <v>40.160576</v>
       </c>
       <c r="I99" t="n">
-        <v>35.794296</v>
+        <v>35.48724</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1316905911489361</v>
+        <v>0.1316906020304762</v>
       </c>
       <c r="K99" t="n">
         <v>7306999808</v>
@@ -5409,16 +5407,16 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>78423785472</v>
+        <v>75926388736</v>
       </c>
       <c r="H100" t="n">
-        <v>37.808838</v>
+        <v>36.634247</v>
       </c>
       <c r="I100" t="n">
-        <v>32.043568</v>
+        <v>31.023148</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1799197267919728</v>
+        <v>0.1808681375597345</v>
       </c>
       <c r="K100" t="n">
         <v>11093000192</v>
@@ -5459,16 +5457,16 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>50746454016</v>
+        <v>50006253568</v>
       </c>
       <c r="H101" t="n">
-        <v>34.01539</v>
+        <v>33.357697</v>
       </c>
       <c r="I101" t="n">
-        <v>28.165606</v>
+        <v>27.62102</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2076924600876684</v>
+        <v>0.2076924385848169</v>
       </c>
       <c r="K101" t="n">
         <v>8111000064</v>
@@ -5509,16 +5507,16 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>96841342976</v>
+        <v>96578248704</v>
       </c>
       <c r="H102" t="n">
-        <v>20.446524</v>
+        <v>20.17246</v>
       </c>
       <c r="I102" t="n">
-        <v>20.337767</v>
+        <v>20.065159</v>
       </c>
       <c r="J102" t="n">
-        <v>0.005347538891560699</v>
+        <v>0.005347627696346668</v>
       </c>
       <c r="K102" t="n">
         <v>109677895680</v>
@@ -5559,16 +5557,16 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>517759991808</v>
+        <v>513412988928</v>
       </c>
       <c r="H103" t="n">
-        <v>51.982506</v>
+        <v>51.546074</v>
       </c>
       <c r="I103" t="n">
-        <v>51.239273</v>
+        <v>50.809082</v>
       </c>
       <c r="J103" t="n">
-        <v>0.01450514334971142</v>
+        <v>0.01450512331633935</v>
       </c>
       <c r="K103" t="n">
         <v>41693184000</v>
@@ -5609,16 +5607,16 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>65529401344</v>
+        <v>66088050688</v>
       </c>
       <c r="H104" t="n">
-        <v>19.708502</v>
+        <v>19.876518</v>
       </c>
       <c r="I104" t="n">
-        <v>21.508099</v>
+        <v>21.691458</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.08367066750064722</v>
+        <v>-0.08367072420858013</v>
       </c>
       <c r="K104" t="n">
         <v>12177999872</v>
@@ -5659,16 +5657,16 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>82628034560</v>
+        <v>83943890944</v>
       </c>
       <c r="H105" t="n">
-        <v>21.310192</v>
+        <v>21.59919</v>
       </c>
       <c r="I105" t="n">
-        <v>20.565931</v>
+        <v>20.875626</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03618902543240088</v>
+        <v>0.0346607090968194</v>
       </c>
       <c r="K105" t="n">
         <v>40500998144</v>
@@ -5709,16 +5707,16 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>237918158848</v>
+        <v>239263858688</v>
       </c>
       <c r="H106" t="n">
-        <v>17.90379</v>
+        <v>17.817785</v>
       </c>
       <c r="I106" t="n">
-        <v>14.586699</v>
+        <v>14.516627</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2274051860534039</v>
+        <v>0.2274053056539926</v>
       </c>
       <c r="K106" t="n">
         <v>55186001920</v>
@@ -5759,16 +5757,16 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>267736285184</v>
+        <v>252442214400</v>
       </c>
       <c r="H107" t="n">
-        <v>15.424871</v>
+        <v>14.187342</v>
       </c>
       <c r="I107" t="n">
-        <v>14.628992</v>
+        <v>13.769041</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05440422689410185</v>
+        <v>0.0303798209330628</v>
       </c>
       <c r="K107" t="n">
         <v>311937990656</v>
@@ -5809,16 +5807,16 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>88014569472</v>
+        <v>88735784960</v>
       </c>
       <c r="H108" t="n">
-        <v>37.179214</v>
+        <v>37.48387</v>
       </c>
       <c r="I108" t="n">
-        <v>2.308189</v>
+        <v>2.327103</v>
       </c>
       <c r="J108" t="n">
-        <v>15.10752585685141</v>
+        <v>15.10752510739748</v>
       </c>
       <c r="K108" t="n">
         <v>17122020352</v>
@@ -5859,16 +5857,16 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>433071128576</v>
+        <v>425977774080</v>
       </c>
       <c r="H109" t="n">
-        <v>608.5</v>
+        <v>597.06665</v>
       </c>
       <c r="I109" t="n">
-        <v>388.40427</v>
+        <v>381.10638</v>
       </c>
       <c r="J109" t="n">
-        <v>0.566666607450016</v>
+        <v>0.5666666351793952</v>
       </c>
       <c r="K109" t="n">
         <v>3440587008</v>
@@ -5909,22 +5907,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>96195002368</v>
+        <v>94751137792</v>
       </c>
       <c r="H110" t="n">
-        <v>28.019535</v>
+        <v>27.473452</v>
       </c>
       <c r="I110" t="n">
-        <v>25.820992</v>
+        <v>25.308424</v>
       </c>
       <c r="J110" t="n">
-        <v>0.08514556683182439</v>
+        <v>0.08554574555887018</v>
       </c>
       <c r="K110" t="n">
         <v>19850000384</v>
       </c>
       <c r="L110" t="n">
-        <v>3011249920</v>
+        <v>3024999936</v>
       </c>
     </row>
     <row r="111">
@@ -5959,16 +5957,16 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>64306520064</v>
+        <v>64831975424</v>
       </c>
       <c r="H111" t="n">
-        <v>14.413276</v>
+        <v>14.29122</v>
       </c>
       <c r="I111" t="n">
-        <v>13.764826</v>
+        <v>13.648262</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04710920428634546</v>
+        <v>0.04710914840292468</v>
       </c>
       <c r="K111" t="n">
         <v>32291999744</v>
@@ -6009,16 +6007,16 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>356924030976</v>
+        <v>356736761856</v>
       </c>
       <c r="H112" t="n">
-        <v>23.425499</v>
+        <v>23.371735</v>
       </c>
       <c r="I112" t="n">
-        <v>20.55256</v>
+        <v>20.50539</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1397849708260186</v>
+        <v>0.1397849541023117</v>
       </c>
       <c r="K112" t="n">
         <v>84283998208</v>
@@ -6059,16 +6057,16 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>139920900096</v>
+        <v>142020214784</v>
       </c>
       <c r="H113" t="n">
-        <v>13.442817</v>
+        <v>13.644507</v>
       </c>
       <c r="I113" t="n">
-        <v>17.290579</v>
+        <v>17.55</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.2225351736341508</v>
+        <v>-0.2225352136752137</v>
       </c>
       <c r="K113" t="n">
         <v>82375999488</v>
@@ -6109,16 +6107,16 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>183127883776</v>
+        <v>183084728320</v>
       </c>
       <c r="H114" t="n">
-        <v>16.395552</v>
+        <v>16.362583</v>
       </c>
       <c r="I114" t="n">
-        <v>13.861815</v>
+        <v>13.87408</v>
       </c>
       <c r="J114" t="n">
-        <v>0.182785371179748</v>
+        <v>0.1793634604961194</v>
       </c>
       <c r="K114" t="n">
         <v>43256999936</v>
@@ -6159,22 +6157,22 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>58042281984</v>
+        <v>60030025728</v>
       </c>
       <c r="H115" t="n">
-        <v>60.29876</v>
+        <v>62.07907</v>
       </c>
       <c r="I115" t="n">
-        <v>38.33957</v>
+        <v>39.410435</v>
       </c>
       <c r="J115" t="n">
-        <v>0.572755249993675</v>
+        <v>0.5751937272450811</v>
       </c>
       <c r="K115" t="n">
         <v>26052929536</v>
       </c>
       <c r="L115" t="n">
-        <v>949285632</v>
+        <v>948364352</v>
       </c>
     </row>
     <row r="116">
@@ -6209,16 +6207,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>60189208576</v>
+        <v>61152636928</v>
       </c>
       <c r="H116" t="n">
-        <v>14.315352</v>
+        <v>14.006808</v>
       </c>
       <c r="I116" t="n">
-        <v>12.533436</v>
+        <v>12.260207</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1421729843276816</v>
+        <v>0.1424609714990945</v>
       </c>
       <c r="K116" t="n">
         <v>14214200320</v>
@@ -6259,16 +6257,16 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>71038459904</v>
+        <v>70997876736</v>
       </c>
       <c r="H117" t="n">
-        <v>33.608566</v>
+        <v>33.55917</v>
       </c>
       <c r="I117" t="n">
-        <v>33.41116</v>
+        <v>33.312775</v>
       </c>
       <c r="J117" t="n">
-        <v>0.005908385102462832</v>
+        <v>0.007396411736938724</v>
       </c>
       <c r="K117" t="n">
         <v>16366000128</v>
@@ -6309,16 +6307,16 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>112150790144</v>
+        <v>112683999232</v>
       </c>
       <c r="H118" t="n">
-        <v>64.06091000000001</v>
+        <v>62.258884</v>
       </c>
       <c r="I118" t="n">
-        <v>172.87671</v>
+        <v>168.0137</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.6294416408086433</v>
+        <v>-0.6294416229152742</v>
       </c>
       <c r="K118" t="n">
         <v>3567000064</v>
@@ -6357,11 +6355,11 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>91661074432</v>
+        <v>92291923968</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>-95.12231</v>
+        <v>-94.992805</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
@@ -6403,16 +6401,16 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>54236291072</v>
+        <v>54418157568</v>
       </c>
       <c r="H120" t="n">
-        <v>35.442333</v>
+        <v>34.714584</v>
       </c>
       <c r="I120" t="n">
-        <v>25.174324</v>
+        <v>24.726772</v>
       </c>
       <c r="J120" t="n">
-        <v>0.4078762551876269</v>
+        <v>0.403927047169764</v>
       </c>
       <c r="K120" t="n">
         <v>7468100096</v>
@@ -6453,16 +6451,16 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>209471012864</v>
+        <v>208650125312</v>
       </c>
       <c r="H121" t="n">
-        <v>15.454071</v>
+        <v>15.312041</v>
       </c>
       <c r="I121" t="n">
-        <v>15.970873</v>
+        <v>15.77454</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.03235903259640216</v>
+        <v>-0.02931933355901339</v>
       </c>
       <c r="K121" t="n">
         <v>60274999296</v>
@@ -6501,16 +6499,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>89797386240</v>
+        <v>88830394368</v>
       </c>
       <c r="H122" t="n">
-        <v>24.542686</v>
+        <v>24.146578</v>
       </c>
       <c r="I122" t="n">
-        <v>23.13436</v>
+        <v>22.710287</v>
       </c>
       <c r="J122" t="n">
-        <v>0.06087594383419281</v>
+        <v>0.06324407084771755</v>
       </c>
       <c r="K122" t="n">
         <v>17184000000</v>
@@ -6551,16 +6549,16 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>214889496576</v>
+        <v>214849339392</v>
       </c>
       <c r="H123" t="n">
-        <v>35.052402</v>
+        <v>35.354626</v>
       </c>
       <c r="I123" t="n">
-        <v>26.274958</v>
+        <v>26.270048</v>
       </c>
       <c r="J123" t="n">
-        <v>0.3340612000217089</v>
+        <v>0.345815051422822</v>
       </c>
       <c r="K123" t="n">
         <v>83598999552</v>
@@ -6601,16 +6599,16 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>151660838912</v>
+        <v>149822914560</v>
       </c>
       <c r="H124" t="n">
-        <v>38.241726</v>
+        <v>37.303078</v>
       </c>
       <c r="I124" t="n">
-        <v>29.551458</v>
+        <v>28.848305</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2940723939915248</v>
+        <v>0.2930769416088743</v>
       </c>
       <c r="K124" t="n">
         <v>14700000256</v>
@@ -6651,16 +6649,16 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>115261480960</v>
+        <v>113967464448</v>
       </c>
       <c r="H125" t="n">
-        <v>15.523179</v>
+        <v>14.825658</v>
       </c>
       <c r="I125" t="n">
-        <v>9.489879</v>
+        <v>9.123481999999999</v>
       </c>
       <c r="J125" t="n">
-        <v>0.6357615307845337</v>
+        <v>0.6249999725981814</v>
       </c>
       <c r="K125" t="n">
         <v>45738000384</v>
@@ -6701,16 +6699,16 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>311013965824</v>
+        <v>307997245440</v>
       </c>
       <c r="H126" t="n">
-        <v>40.623276</v>
+        <v>40.01677</v>
       </c>
       <c r="I126" t="n">
-        <v>39.29926</v>
+        <v>38.890373</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03369060893258546</v>
+        <v>0.02896338896003914</v>
       </c>
       <c r="K126" t="n">
         <v>35887001600</v>
@@ -6751,16 +6749,16 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>170467246080</v>
+        <v>172046483456</v>
       </c>
       <c r="H127" t="n">
-        <v>25.244625</v>
+        <v>25.478495</v>
       </c>
       <c r="I127" t="n">
-        <v>24.71316</v>
+        <v>24.942104</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0215053437116095</v>
+        <v>0.0215054431655004</v>
       </c>
       <c r="K127" t="n">
         <v>21625999360</v>
@@ -6799,16 +6797,16 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>192509149184</v>
+        <v>193692008448</v>
       </c>
       <c r="H128" t="n">
-        <v>116.54146</v>
+        <v>114.96996</v>
       </c>
       <c r="I128" t="n">
-        <v>55.5491</v>
+        <v>55.006584</v>
       </c>
       <c r="J128" t="n">
-        <v>1.097990066445721</v>
+        <v>1.090112703599264</v>
       </c>
       <c r="K128" t="n">
         <v>12056999936</v>
@@ -6849,16 +6847,16 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>85882863616</v>
+        <v>85511356416</v>
       </c>
       <c r="H129" t="n">
-        <v>34.171627</v>
+        <v>33.773586</v>
       </c>
       <c r="I129" t="n">
-        <v>26.95227</v>
+        <v>26.611895</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2678571044294229</v>
+        <v>0.2691161602734418</v>
       </c>
       <c r="K129" t="n">
         <v>23079899136</v>
@@ -6899,16 +6897,16 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>195490119680</v>
+        <v>194224193536</v>
       </c>
       <c r="H130" t="n">
-        <v>82.83978</v>
+        <v>80.13966000000001</v>
       </c>
       <c r="I130" t="n">
-        <v>81.04864999999999</v>
+        <v>77.54053500000001</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02209944274210618</v>
+        <v>0.03351956496044295</v>
       </c>
       <c r="K130" t="n">
         <v>10014000128</v>
@@ -6949,16 +6947,16 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>178043813888</v>
+        <v>178462605312</v>
       </c>
       <c r="H131" t="n">
-        <v>22.375938</v>
+        <v>22.42857</v>
       </c>
       <c r="I131" t="n">
-        <v>25.008402</v>
+        <v>25.067226</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.1052631831494071</v>
+        <v>-0.1052631830901433</v>
       </c>
       <c r="K131" t="n">
         <v>13013317844992</v>
@@ -6999,16 +6997,16 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>89551962112</v>
+        <v>97056587776</v>
       </c>
       <c r="H132" t="n">
-        <v>24.777529</v>
+        <v>26.507866</v>
       </c>
       <c r="I132" t="n">
-        <v>22.923079</v>
+        <v>24.523909</v>
       </c>
       <c r="J132" t="n">
-        <v>0.08089881817359701</v>
+        <v>0.08089888932469935</v>
       </c>
       <c r="K132" t="n">
         <v>11888199680</v>
@@ -7049,16 +7047,16 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>269526597632</v>
+        <v>268299894784</v>
       </c>
       <c r="H133" t="n">
-        <v>22.61473</v>
+        <v>22.468367</v>
       </c>
       <c r="I133" t="n">
-        <v>22.445173</v>
+        <v>22.299906</v>
       </c>
       <c r="J133" t="n">
-        <v>0.007554274587235454</v>
+        <v>0.007554336776128157</v>
       </c>
       <c r="K133" t="n">
         <v>84052000768</v>
@@ -7099,16 +7097,16 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1466281885696</v>
+        <v>1434903511040</v>
       </c>
       <c r="H134" t="n">
-        <v>29.510437</v>
+        <v>30.104464</v>
       </c>
       <c r="I134" t="n">
-        <v>34.98886</v>
+        <v>34.2401</v>
       </c>
       <c r="J134" t="n">
-        <v>-0.1565762073985835</v>
+        <v>-0.1207834089269598</v>
       </c>
       <c r="K134" t="n">
         <v>3401198862336</v>
@@ -7149,16 +7147,16 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>55603056640</v>
+        <v>55906680832</v>
       </c>
       <c r="H135" t="n">
-        <v>17.949495</v>
+        <v>18.138514</v>
       </c>
       <c r="I135" t="n">
-        <v>20.116982</v>
+        <v>20.260376</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.1077441437289153</v>
+        <v>-0.1047296456887079</v>
       </c>
       <c r="K135" t="n">
         <v>14302000128</v>
@@ -7199,16 +7197,16 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>54737960960</v>
+        <v>55288688640</v>
       </c>
       <c r="H136" t="n">
-        <v>9.766337</v>
+        <v>9.873882</v>
       </c>
       <c r="I136" t="n">
-        <v>10.915921</v>
+        <v>11.025749</v>
       </c>
       <c r="J136" t="n">
-        <v>-0.1053125979933348</v>
+        <v>-0.1044706350561762</v>
       </c>
       <c r="K136" t="n">
         <v>66218000384</v>
@@ -7249,16 +7247,16 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>77430497280</v>
+        <v>77790846976</v>
       </c>
       <c r="H137" t="n">
-        <v>15.903508</v>
+        <v>15.573465</v>
       </c>
       <c r="I137" t="n">
-        <v>9.261813</v>
+        <v>9.069604</v>
       </c>
       <c r="J137" t="n">
-        <v>0.717105279495494</v>
+        <v>0.7171052892717258</v>
       </c>
       <c r="K137" t="n">
         <v>262023004160</v>
@@ -7299,16 +7297,16 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>177383292928</v>
+        <v>176722477056</v>
       </c>
       <c r="H138" t="n">
-        <v>27.168882</v>
+        <v>26.529175</v>
       </c>
       <c r="I138" t="n">
-        <v>19.997871</v>
+        <v>19.549595</v>
       </c>
       <c r="J138" t="n">
-        <v>0.3585887217694324</v>
+        <v>0.3570191607549926</v>
       </c>
       <c r="K138" t="n">
         <v>43212001280</v>
@@ -7349,16 +7347,16 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>155499806720</v>
+        <v>157436329984</v>
       </c>
       <c r="H139" t="n">
-        <v>31.826881</v>
+        <v>32.223236</v>
       </c>
       <c r="I139" t="n">
-        <v>30.373915</v>
+        <v>30.752176</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04783598031402936</v>
+        <v>0.04783596451841321</v>
       </c>
       <c r="K139" t="n">
         <v>57925001216</v>
@@ -7399,16 +7397,16 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>135689560064</v>
+        <v>135076667392</v>
       </c>
       <c r="H140" t="n">
-        <v>9.352732</v>
+        <v>9.341232</v>
       </c>
       <c r="I140" t="n">
-        <v>13.601036</v>
+        <v>13.61658</v>
       </c>
       <c r="J140" t="n">
-        <v>-0.3123515002827726</v>
+        <v>-0.3139810436981973</v>
       </c>
       <c r="K140" t="n">
         <v>63438000128</v>
@@ -7447,16 +7445,16 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>90703937536</v>
+        <v>90430242816</v>
       </c>
       <c r="H141" t="n">
-        <v>32.155556</v>
+        <v>32.050472</v>
       </c>
       <c r="I141" t="n">
-        <v>32.02846</v>
+        <v>32.126484</v>
       </c>
       <c r="J141" t="n">
-        <v>0.003968220763658215</v>
+        <v>-0.002366022998346096</v>
       </c>
       <c r="K141" t="n">
         <v>20750100480</v>
@@ -7497,16 +7495,16 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>73219866624</v>
+        <v>73255370752</v>
       </c>
       <c r="H142" t="n">
-        <v>43.05401</v>
+        <v>42.914173</v>
       </c>
       <c r="I142" t="n">
-        <v>29.884315</v>
+        <v>29.668814</v>
       </c>
       <c r="J142" t="n">
-        <v>0.4406892043535211</v>
+        <v>0.4464404610174171</v>
       </c>
       <c r="K142" t="n">
         <v>8579999744</v>
@@ -7547,16 +7545,16 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>62195478528</v>
+        <v>62285529088</v>
       </c>
       <c r="H143" t="n">
-        <v>12.218488</v>
+        <v>12.1229</v>
       </c>
       <c r="I143" t="n">
-        <v>13.000471</v>
+        <v>12.90447</v>
       </c>
       <c r="J143" t="n">
-        <v>-0.06015035916775624</v>
+        <v>-0.06056583493936596</v>
       </c>
       <c r="K143" t="n">
         <v>47837999104</v>
@@ -7597,16 +7595,16 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>76797943808</v>
+        <v>76533399552</v>
       </c>
       <c r="H144" t="n">
-        <v>11.80622</v>
+        <v>11.729665</v>
       </c>
       <c r="I144" t="n">
-        <v>11.397228</v>
+        <v>11.323325</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0358852170018884</v>
+        <v>0.03588521922668475</v>
       </c>
       <c r="K144" t="n">
         <v>25560000512</v>
@@ -7645,16 +7643,16 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>203953946624</v>
+        <v>203912232960</v>
       </c>
       <c r="H145" t="n">
-        <v>16.66099</v>
+        <v>16.655289</v>
       </c>
       <c r="I145" t="n">
-        <v>41.44068</v>
+        <v>41.355934</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.5979556802639339</v>
+        <v>-0.5972696687251702</v>
       </c>
       <c r="K145" t="n">
         <v>47331000320</v>
@@ -7695,16 +7693,16 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>133358936064</v>
+        <v>128867516416</v>
       </c>
       <c r="H146" t="n">
-        <v>22.38298</v>
+        <v>21.41799</v>
       </c>
       <c r="I146" t="n">
-        <v>20.23077</v>
+        <v>19.461538</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1063829997573005</v>
+        <v>0.1005291565342883</v>
       </c>
       <c r="K146" t="n">
         <v>47011000320</v>
@@ -7743,16 +7741,16 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>135201226752</v>
+        <v>137585246208</v>
       </c>
       <c r="H147" t="n">
-        <v>19.78993</v>
+        <v>20.156385</v>
       </c>
       <c r="I147" t="n">
-        <v>18.825764</v>
+        <v>19.15772</v>
       </c>
       <c r="J147" t="n">
-        <v>0.05121523886095658</v>
+        <v>0.05212859359046895</v>
       </c>
       <c r="K147" t="n">
         <v>24393000960</v>
@@ -7793,16 +7791,16 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>61460021248</v>
+        <v>60209225728</v>
       </c>
       <c r="H148" t="n">
-        <v>24.753044</v>
+        <v>24.15694</v>
       </c>
       <c r="I148" t="n">
-        <v>20.384548</v>
+        <v>19.873026</v>
       </c>
       <c r="J148" t="n">
-        <v>0.2143042857756767</v>
+        <v>0.2155642527715709</v>
       </c>
       <c r="K148" t="n">
         <v>15749000192</v>
@@ -7843,16 +7841,16 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>314893664256</v>
+        <v>318625021952</v>
       </c>
       <c r="H149" t="n">
-        <v>15.045002</v>
+        <v>14.97227</v>
       </c>
       <c r="I149" t="n">
-        <v>11.628428</v>
+        <v>11.557191</v>
       </c>
       <c r="J149" t="n">
-        <v>0.2938121988629934</v>
+        <v>0.2954938617870035</v>
       </c>
       <c r="K149" t="n">
         <v>422817988608</v>
@@ -7943,16 +7941,16 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>657397055488</v>
+        <v>657358192640</v>
       </c>
       <c r="H151" t="n">
-        <v>33.108505</v>
+        <v>32.676098</v>
       </c>
       <c r="I151" t="n">
-        <v>26.753555</v>
+        <v>26.455767</v>
       </c>
       <c r="J151" t="n">
-        <v>0.237536656343428</v>
+        <v>0.2351219301258589</v>
       </c>
       <c r="K151" t="n">
         <v>38892998656</v>
@@ -7993,16 +7991,16 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>69200666624</v>
+        <v>68462034944</v>
       </c>
       <c r="H152" t="n">
-        <v>32.783306</v>
+        <v>32.466988</v>
       </c>
       <c r="I152" t="n">
-        <v>29.6</v>
+        <v>29.22029</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1075441216216217</v>
+        <v>0.1111110806908489</v>
       </c>
       <c r="K152" t="n">
         <v>18507999232</v>
@@ -8043,16 +8041,16 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>817376657408</v>
+        <v>821602353152</v>
       </c>
       <c r="H153" t="n">
-        <v>38.68679</v>
+        <v>38.88679</v>
       </c>
       <c r="I153" t="n">
-        <v>37.691174</v>
+        <v>37.88603</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02641509654223051</v>
+        <v>0.0264150136607082</v>
       </c>
       <c r="K153" t="n">
         <v>693152972800</v>
@@ -8093,16 +8091,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>201818079232</v>
+        <v>203939643392</v>
       </c>
       <c r="H154" t="n">
-        <v>17.594044</v>
+        <v>17.710032</v>
       </c>
       <c r="I154" t="n">
-        <v>21.796116</v>
+        <v>21.939804</v>
       </c>
       <c r="J154" t="n">
-        <v>-0.1927899447773173</v>
+        <v>-0.1927898717782528</v>
       </c>
       <c r="K154" t="n">
         <v>94535000064</v>
@@ -8143,16 +8141,16 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>87909654528</v>
+        <v>88389025792</v>
       </c>
       <c r="H155" t="n">
-        <v>32.330368</v>
+        <v>32.26746</v>
       </c>
       <c r="I155" t="n">
-        <v>27.042131</v>
+        <v>26.909542</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1955554834047657</v>
+        <v>0.1991084798098757</v>
       </c>
       <c r="K155" t="n">
         <v>23950000128</v>
@@ -8193,16 +8191,16 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>115405914112</v>
+        <v>114837405696</v>
       </c>
       <c r="H156" t="n">
-        <v>96.39664999999999</v>
+        <v>95.92179</v>
       </c>
       <c r="I156" t="n">
-        <v>94.80768999999999</v>
+        <v>94.34065</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01675982190896108</v>
+        <v>0.01675990148467288</v>
       </c>
       <c r="K156" t="n">
         <v>9277824000</v>
@@ -8243,16 +8241,16 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>63202398208</v>
+        <v>62785802240</v>
       </c>
       <c r="H157" t="n">
-        <v>24.54561</v>
+        <v>24.290878</v>
       </c>
       <c r="I157" t="n">
-        <v>22.49369</v>
+        <v>22.260252</v>
       </c>
       <c r="J157" t="n">
-        <v>0.09122202715517114</v>
+        <v>0.09122205804318817</v>
       </c>
       <c r="K157" t="n">
         <v>9384999936</v>

--- a/Artifacts/World Large Stocks_stocks.xlsx
+++ b/Artifacts/World Large Stocks_stocks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +473,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adobe Inc.</t>
+          <t>3M Company</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Software - Application</t>
+          <t>Conglomerates</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -502,28 +502,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>138602643456</v>
+        <v>90637615104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Advanced Micro Devices, Inc.</t>
+          <t>Abbott Laboratories</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,33 +537,33 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>401816944640</v>
+        <v>227079274496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agnico Eagle Mines Limited</t>
+          <t>AbbVie Inc.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Drug Manufacturers - General</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -572,33 +572,33 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>86446211072</v>
+        <v>410669481984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alphabet Inc.</t>
+          <t>Accenture plc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Internet Content &amp; Information</t>
+          <t>Information Technology Services</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,28 +607,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3338390208512</v>
+        <v>153527779328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amazon.com, Inc.</t>
+          <t>Adobe Inc.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Internet Retail</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -642,28 +642,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2508886900736</v>
+        <v>139644960768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>American Express Company</t>
+          <t>Advanced Micro Devices, Inc.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Credit Services</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -677,33 +677,33 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>246044033024</v>
+        <v>403689177088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>AEM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>American Tower Corporation (REI</t>
+          <t>Agnico Eagle Mines Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>REIT - Specialty</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -712,28 +712,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>85947039744</v>
+        <v>86837018624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amgen Inc.</t>
+          <t>Alphabet Inc.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Drug Manufacturers - General</t>
+          <t>Internet Content &amp; Information</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>181327970304</v>
+        <v>3364478255104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Analog Devices, Inc.</t>
+          <t>Amazon.com, Inc.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Internet Retail</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -782,28 +782,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>115555409920</v>
+        <v>2539781357568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Applied Materials, Inc.</t>
+          <t>American Express Company</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment &amp; Materials</t>
+          <t>Credit Services</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -817,28 +817,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>180049149952</v>
+        <v>251244871680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>AMT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AT&amp;T Inc.</t>
+          <t>American Tower Corporation (REI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Telecom Services</t>
+          <t>REIT - Specialty</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -852,28 +852,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>181419016192</v>
+        <v>85947039744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Automatic Data Processing, Inc.</t>
+          <t>Amgen Inc.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Software - Application</t>
+          <t>Drug Manufacturers - General</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -887,28 +887,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>102361931776</v>
+        <v>181327970304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Boston Scientific Corporation</t>
+          <t>Analog Devices, Inc.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Medical Devices</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -922,28 +922,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>152231968768</v>
+        <v>116854177792</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bristol-Myers Squibb Company</t>
+          <t>Apple Inc.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Drug Manufacturers - General</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -957,28 +957,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>94967881728</v>
+        <v>4033205501952</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Capital One Financial Corporati</t>
+          <t>Applied Materials, Inc.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Credit Services</t>
+          <t>Semiconductor Equipment &amp; Materials</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -992,33 +992,33 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>134235152384</v>
+        <v>180049149952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chubb Limited</t>
+          <t>Applovin Corporation</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Insurance - Property &amp; Casualty</t>
+          <t>Advertising Agencies</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1027,28 +1027,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>116290338816</v>
+        <v>187953692672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cisco Systems, Inc.</t>
+          <t>AT&amp;T Inc.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Communication Equipment</t>
+          <t>Telecom Services</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1062,28 +1062,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>307376553984</v>
+        <v>182553329664</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Costco Wholesale Corporation</t>
+          <t>Automatic Data Processing, Inc.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Discount Stores</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1097,28 +1097,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>409045499904</v>
+        <v>102976692224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Eli Lilly and Company</t>
+          <t>Bank of America Corporation</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Drug Manufacturers - General</t>
+          <t>Banks - Diversified</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1132,33 +1132,33 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>917644836864</v>
+        <v>386082930688</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GEV</t>
+          <t>BMO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GE Vernova Inc.</t>
+          <t>Bank Of Montreal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Specialty Industrial Machinery</t>
+          <t>Banks - Diversified</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1167,18 +1167,18 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>156907323392</v>
+        <v>90389192704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Goldman Sachs Group, Inc. (The)</t>
+          <t>BlackRock, Inc.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Asset Management</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1202,28 +1202,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>237216448512</v>
+        <v>165957156864</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HCA</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HCA Healthcare, Inc.</t>
+          <t>Booking Holdings Inc. Common St</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Medical Care Facilities</t>
+          <t>Travel Services</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1237,28 +1237,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>107855847424</v>
+        <v>163606265856</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>BSX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Intel Corporation</t>
+          <t>Boston Scientific Corporation</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Medical Devices</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1272,28 +1272,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>169430401024</v>
+        <v>155626766336</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IBKR</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Interactive Brokers Group, Inc.</t>
+          <t>Bristol-Myers Squibb Company</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Drug Manufacturers - General</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1307,18 +1307,18 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>112246874112</v>
+        <v>98998673408</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>International Business Machines</t>
+          <t>Broadcom Inc.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Information Technology Services</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>285739220992</v>
+        <v>1617220993024</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>BAM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Intuit Inc.</t>
+          <t>Brookfield Asset Management Inc</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Software - Application</t>
+          <t>Asset Management</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1377,33 +1377,33 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>184683200512</v>
+        <v>88033837056</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>BN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Johnson &amp; Johnson</t>
+          <t>Brookfield Corporation</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Drug Manufacturers - General</t>
+          <t>Asset Management</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1412,28 +1412,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>472053186560</v>
+        <v>105136726016</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KKR &amp; Co. Inc.</t>
+          <t>Cadence Design Systems, Inc.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Asset Management</t>
+          <t>Software - Application</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1447,28 +1447,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>111036563456</v>
+        <v>86012788736</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>COF</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KLA Corporation</t>
+          <t>Capital One Financial Corporati</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment &amp; Materials</t>
+          <t>Credit Services</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1482,33 +1482,33 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>149040955392</v>
+        <v>137827041280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Linde plc</t>
+          <t>Caterpillar, Inc.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Farm &amp; Heavy Construction Machinery</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1517,28 +1517,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>197701517312</v>
+        <v>259551379456</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lockheed Martin Corporation</t>
+          <t>Chevron Corporation</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Oil &amp; Gas Integrated</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1552,18 +1552,18 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>107778146304</v>
+        <v>315138113536</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MMC</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Marsh &amp; McLennan Companies, Inc</t>
+          <t>Chubb Limited</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Insurance Brokers</t>
+          <t>Insurance - Property &amp; Casualty</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1587,28 +1587,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>89560391680</v>
+        <v>116577624064</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mastercard Incorporated</t>
+          <t>Cisco Systems, Inc.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Credit Services</t>
+          <t>Communication Equipment</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1622,28 +1622,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>490063265792</v>
+        <v>307376553984</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>McKesson Corporation</t>
+          <t>Citigroup, Inc.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Medical Distribution</t>
+          <t>Banks - Diversified</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1657,33 +1657,33 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>103936352256</v>
+        <v>180125433856</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MercadoLibre, Inc.</t>
+          <t>CME Group Inc.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Internet Retail</t>
+          <t>Financial Data &amp; Stock Exchanges</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1692,28 +1692,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>103872946176</v>
+        <v>102784466944</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Micron Technology, Inc.</t>
+          <t>Coca-Cola Company (The)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Beverages - Non-Alcoholic</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1727,28 +1727,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>277058289664</v>
+        <v>306102501376</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Microsoft Corporation</t>
+          <t>Comcast Corporation</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Software - Infrastructure</t>
+          <t>Telecom Services</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3791850569728</v>
+        <v>101919735808</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>COP</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Moody's Corporation</t>
+          <t>ConocoPhillips</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Financial Data &amp; Stock Exchanges</t>
+          <t>Oil &amp; Gas E&amp;P</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1797,28 +1797,28 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>85539233792</v>
+        <v>112907583488</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Netflix, Inc.</t>
+          <t>Constellation Energy Corporatio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Utilities - Independent Power Producers</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1832,28 +1832,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>471262396416</v>
+        <v>105716432896</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Newmont Corporation</t>
+          <t>Costco Wholesale Corporation</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Discount Stores</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1867,18 +1867,18 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>95812894720</v>
+        <v>409976176640</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NVIDIA Corporation</t>
+          <t>CrowdStrike Holdings, Inc.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Software - Infrastructure</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1902,28 +1902,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4630069116928</v>
+        <v>134900932608</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Parker-Hannifin Corporation</t>
+          <t>CVS Health Corporation</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Specialty Industrial Machinery</t>
+          <t>Healthcare Plans</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1937,28 +1937,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>104981020672</v>
+        <v>100589830144</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>DHR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Procter &amp; Gamble Company (The)</t>
+          <t>Danaher Corporation</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Household &amp; Personal Products</t>
+          <t>Diagnostics &amp; Research</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1972,28 +1972,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>345065422848</v>
+        <v>156251586560</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Progressive Corporation (The)</t>
+          <t>Deere &amp; Company</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Insurance - Property &amp; Casualty</t>
+          <t>Farm &amp; Heavy Construction Machinery</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2007,28 +2007,28 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>132044931072</v>
+        <v>128738975744</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HOOD</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Robinhood Markets, Inc.</t>
+          <t>Dell Technologies Inc.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Capital Markets</t>
+          <t>Computer Hardware</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2042,28 +2042,28 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>110150639616</v>
+        <v>89766608896</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S&amp;P Global Inc.</t>
+          <t>DoorDash, Inc.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Financial Data &amp; Stock Exchanges</t>
+          <t>Internet Retail</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2077,28 +2077,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>149552922624</v>
+        <v>84135223296</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>DUK</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Salesforce, Inc.</t>
+          <t>Duke Energy Corporation (Holdin</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Software - Application</t>
+          <t>Utilities - Regulated Electric</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2112,28 +2112,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>231964327936</v>
+        <v>96111149056</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Southern Company (The)</t>
+          <t>Eli Lilly and Company</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Utilities - Regulated Electric</t>
+          <t>Drug Manufacturers - General</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2147,33 +2147,33 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>99859202048</v>
+        <v>917644836864</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>ENB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Trane Technologies plc</t>
+          <t>Enbridge Inc</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Building Products &amp; Equipment</t>
+          <t>Oil &amp; Gas Midstream</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2182,28 +2182,28 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>92722380800</v>
+        <v>106206707712</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Uber Technologies, Inc.</t>
+          <t>Exxon Mobil Corporation</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Software - Application</t>
+          <t>Oil &amp; Gas Integrated</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2217,28 +2217,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>190370824192</v>
+        <v>503045914624</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Verizon Communications Inc.</t>
+          <t>GE Vernova Inc.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Telecom Services</t>
+          <t>Specialty Industrial Machinery</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2252,42 +2252,2387 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>173126434816</v>
+        <v>156907323392</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Gilead Sciences, Inc.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - General</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>155333083136</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Goldman Sachs Group, Inc. (The)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>241592401920</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HCA Healthcare, Inc.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Medical Care Facilities</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>107999608832</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Home Depot, Inc. (The)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Home Improvement Retail</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>366371930112</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Honeywell International Inc.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>126894907392</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Intel Corporation</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>171290705920</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IBKR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Interactive Brokers Group, Inc.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>113963810816</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>International Business Machines</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>285739220992</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Intuit Inc.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>184683200512</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Intuitive Surgical, Inc.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Medical Instruments &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>200471085056</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Johnson</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - General</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>472053186560</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>JP Morgan Chase &amp; Co.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Banks - Diversified</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>842485727232</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>KKR &amp; Co. Inc.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Asset Management</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>111805079552</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KLA Corporation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Semiconductor Equipment &amp; Materials</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>152641093632</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Linde plc</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Specialty Chemicals</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>200153006080</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Lockheed Martin Corporation</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>107778146304</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Lowe's Companies, Inc.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Home Improvement Retail</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>129814142976</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MMC</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Marsh &amp; McLennan Companies, Inc</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Insurance Brokers</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>90069893120</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mastercard Incorporated</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>498899550208</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>McDonald's Corporation</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Restaurants</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>219044429824</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>McKesson Corporation</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Medical Distribution</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>104448565248</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MELI</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MercadoLibre, Inc.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Internet Retail</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>103872946176</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Merck &amp; Company, Inc.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - General</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>230654345216</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Micron Technology, Inc.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>277058289664</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Microsoft Corporation</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3791850569728</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Moody's Corporation</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Financial Data &amp; Stock Exchanges</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>87553376256</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Morgan Stanley</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>263205519360</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Netflix, Inc.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>489084583936</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Newmont Corporation</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>97908113408</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>NVIDIA Corporation</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4630069116928</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ORLY</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>O'Reilly Automotive, Inc.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Auto Parts</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>83397484544</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Oracle Corporation</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>635299168256</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Palo Alto Networks, Inc.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Software - Infrastructure</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>140387450880</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Parker-Hannifin Corporation</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Specialty Industrial Machinery</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>106241630208</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Pepsico, Inc.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Beverages - Non-Alcoholic</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>199426572288</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Pfizer, Inc.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Drug Manufacturers - General</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>146634391552</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Procter &amp; Gamble Company (The)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>345743097856</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PGR</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Progressive Corporation (The)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Insurance - Property &amp; Casualty</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>132044931072</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Prologis, Inc.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>REIT - Industrial</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>115179511808</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>QUALCOMM Incorporated</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>186889502720</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>HOOD</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Robinhood Markets, Inc.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>109278420992</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Royal Bank Of Canada</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Banks - Diversified</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>210038816768</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>RTX Corporation</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>235399348224</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SPGI</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Inc.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Financial Data &amp; Stock Exchanges</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>152296275968</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Salesforce, Inc.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>231964327936</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SCHW</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Charles Schwab Corporation (The</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>169448685568</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ServiceNow, Inc.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>176448487424</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SHOP</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Shopify Inc.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>203850612736</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SNOW</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Snowflake Inc.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>87078371328</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Southern Company (The)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>100387733504</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SYK</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Stryker Corporation</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Medical Devices</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>142804631552</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>T-Mobile US, Inc.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>241686921216</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Texas Instruments Incorporated</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>147405914112</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>BNS</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Bank Nova Scotia Halifax Pfd 3</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Banks - Diversified</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>84206346240</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Thermo Fisher Scientific Inc</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Diagnostics &amp; Research</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>217959530496</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Toronto Dominion Bank (The)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Banks - Diversified</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>141146505216</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Trane Technologies plc</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Building Products &amp; Equipment</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>92722380800</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Uber Technologies, Inc.</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Software - Application</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>190703271936</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Union Pacific Corporation</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Railroads</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>132286742528</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>UnitedHealth Group Incorporated</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Healthcare Plans</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>301209452544</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Verizon Communications Inc.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>173337264128</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Vertex Pharmaceuticals Incorpor</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>110913183744</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Visa Inc.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Credit Services</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>648599830528</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
           <t>WMT</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Walmart Inc.</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Consumer Defensive</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Discount Stores</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>817057824768</v>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>817536172032</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Walt Disney Company (The)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>192114950144</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>WM</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Waste Management, Inc.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Waste Management</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>84267696128</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Wells Fargo &amp; Company</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Banks - Diversified</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>266979147776</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Welltower Inc.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>REIT - Healthcare Facilities</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>133024112640</v>
       </c>
     </row>
   </sheetData>
